--- a/prueba de git.xlsx
+++ b/prueba de git.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CB3B5C-A6DA-437A-8BDA-F97130BF793A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>hola</t>
   </si>
@@ -30,11 +29,14 @@
   <si>
     <t>es</t>
   </si>
+  <si>
+    <t>prueba desde contabilidad</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -345,26 +347,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>

--- a/prueba de git.xlsx
+++ b/prueba de git.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6063CD4-57E5-43CA-9AC4-BEE02992256D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>hola</t>
   </si>
@@ -31,12 +32,15 @@
   </si>
   <si>
     <t>prueba desde contabilidad</t>
+  </si>
+  <si>
+    <t>hola alejandro como seria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -347,11 +351,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -373,6 +377,9 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
